--- a/Test Data/FC_Gallery_Printers_FC_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Printers_FC_Series_Panels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD6D42A-E2E2-4A0C-B07E-C16B4634510B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA140FF-53B7-44FC-899D-0E7034A2F7D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>

--- a/Test Data/FC_Gallery_Printers_FC_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Printers_FC_Series_Panels.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA140FF-53B7-44FC-899D-0E7034A2F7D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD6416B-58B8-45C2-9129-CA829D143395}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
+    <sheet name="Denmark" sheetId="22" r:id="rId3"/>
+    <sheet name="Sweden" sheetId="23" r:id="rId4"/>
+    <sheet name="Norway" sheetId="24" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="23">
   <si>
     <t>Wg</t>
   </si>
@@ -85,6 +88,24 @@
   </si>
   <si>
     <t>NGC-3463/T1193/T1194/T1195/T1212/T1213</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-3446/T2004/T2005</t>
+  </si>
+  <si>
+    <t>Sweden Market</t>
+  </si>
+  <si>
+    <t>NGC-3465/T2025/T2023/T2027</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-3464/T1919/T1920</t>
   </si>
 </sst>
 </file>
@@ -508,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ACA134-0DC9-4886-A3B4-427550CF960B}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -711,4 +732,310 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C8E6E7E-E0ED-4E36-8E4B-DF4243B50509}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E645CA-3DAA-4A9D-B7FA-663BCBD8ACF1}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE164D5-AF19-4B6F-9706-E9C021329005}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_Printers_FC_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Printers_FC_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD6416B-58B8-45C2-9129-CA829D143395}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF90D05-3FB4-43DE-A60B-9D82D0FDF165}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Denmark" sheetId="22" r:id="rId3"/>
     <sheet name="Sweden" sheetId="23" r:id="rId4"/>
     <sheet name="Norway" sheetId="24" r:id="rId5"/>
+    <sheet name="Italy" sheetId="25" r:id="rId6"/>
+    <sheet name="Spain" sheetId="26" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -106,6 +108,18 @@
   </si>
   <si>
     <t>NGC-3464/T1919/T1920</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3442/T2128/T2127/T2130</t>
+  </si>
+  <si>
+    <t>NGC-3443/T1967/T1968/T1970</t>
   </si>
 </sst>
 </file>
@@ -942,7 +956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE164D5-AF19-4B6F-9706-E9C021329005}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -1038,4 +1052,208 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D28FE3-D043-4AFD-84FE-07EEE2ED2999}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F447E17B-17B8-4FAF-A196-4B9D6D10D661}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_Printers_FC_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Printers_FC_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF90D05-3FB4-43DE-A60B-9D82D0FDF165}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B81E983-6DE6-4F94-A9CB-387EECF7EF8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Norway" sheetId="24" r:id="rId5"/>
     <sheet name="Italy" sheetId="25" r:id="rId6"/>
     <sheet name="Spain" sheetId="26" r:id="rId7"/>
+    <sheet name="Romania" sheetId="27" r:id="rId8"/>
+    <sheet name="Slovakia" sheetId="28" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -120,6 +122,18 @@
   </si>
   <si>
     <t>NGC-3443/T1967/T1968/T1970</t>
+  </si>
+  <si>
+    <t>Romania Market</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>NGC-4307/T3536/T3543</t>
+  </si>
+  <si>
+    <t>NGC-4306/T3562/T3575</t>
   </si>
 </sst>
 </file>
@@ -651,7 +665,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1058,7 +1072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D28FE3-D043-4AFD-84FE-07EEE2ED2999}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1256,4 +1270,218 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CAAC23F-BA3A-495C-A248-38E78F17C02D}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090338EE-6CBB-4A88-B6E5-18842E041612}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_Printers_FC_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Printers_FC_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B81E983-6DE6-4F94-A9CB-387EECF7EF8D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3F8813-0B42-44AA-9482-69FC9E7F25F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Spain" sheetId="26" r:id="rId7"/>
     <sheet name="Romania" sheetId="27" r:id="rId8"/>
     <sheet name="Slovakia" sheetId="28" r:id="rId9"/>
+    <sheet name="Hungary" sheetId="29" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="33">
   <si>
     <t>Wg</t>
   </si>
@@ -134,6 +135,12 @@
   </si>
   <si>
     <t>NGC-4306/T3562/T3575</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-4308/T3593/T3618/T3595/T3620</t>
   </si>
 </sst>
 </file>
@@ -660,6 +667,108 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99152849-C699-4B66-B1FA-B25F6F8F3262}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0AFF44-8AD7-492C-B27F-C4CAE9E4FBB0}">
   <dimension ref="A1:D11"/>
@@ -1383,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090338EE-6CBB-4A88-B6E5-18842E041612}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/FC_Gallery_Printers_FC_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Printers_FC_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3F8813-0B42-44AA-9482-69FC9E7F25F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EA0D5D-CFF5-45EF-B35F-3E8FB97862AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>UK and Turkey Market</t>
   </si>
   <si>
-    <t>NGC-3463/T1193/T1194/T1195/T1212/T1213</t>
-  </si>
-  <si>
     <t>Denmark Market</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>NGC-4308/T3593/T3618/T3595/T3620</t>
+  </si>
+  <si>
+    <t>NGC-3003 and NGC-3463/T1193/T1194/T1195/T1212/T1213/T3836</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74ACA134-0DC9-4886-A3B4-427550CF960B}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -606,12 +606,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -671,7 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99152849-C699-4B66-B1FA-B25F6F8F3262}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -718,7 +718,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -900,7 +900,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -922,7 +922,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1002,7 +1002,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1024,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1104,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1126,7 +1126,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1206,7 +1206,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1228,7 +1228,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1308,7 +1308,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1330,7 +1330,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1410,7 +1410,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1432,7 +1432,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1517,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1539,7 +1539,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
